--- a/biology/Botanique/José_Cuatrecasas/José_Cuatrecasas.xlsx
+++ b/biology/Botanique/José_Cuatrecasas/José_Cuatrecasas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Cuatrecasas</t>
+          <t>José_Cuatrecasas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">José Cuatrecasas, né le 19 mars 1903 à Camprodon (Catalogne) et mort le 23 mai 1996 à Washington, est un botaniste espagnol naturalisé américain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Cuatrecasas</t>
+          <t>José_Cuatrecasas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de José Genis Cuatrecasas et de Carmen, née Arumi. Il obtient une licence de philosophie à Barcelone en 1923 puis un doctorat à l'université de Madrid en 1928. Il se marie avec Martha Maria Nowack le 27 juillet 1933, union dont il aura trois enfants.
 Il est professeur-assistant de botanique à l’université de Barcelone de 1924 à 1930, puis de systématique végétale à l'université de Madrid de 1931 à 1939, conservateur du jardin botanique tropical de Madrid de 1932 à 1939 puis directeur du même jardin de 1936 à 1939.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Cuatrecasas</t>
+          <t>José_Cuatrecasas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1986 : Prix Narcís Monturiol de la Generalitat de Catalogne</t>
         </is>
